--- a/Day_22_assignment/Ebay Test Analysis Report.xlsx
+++ b/Day_22_assignment/Ebay Test Analysis Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sai/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34527C87-CB81-8247-A88E-9069D86E578F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3B18B9-CCD8-491D-BA09-486C650DCB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15220" yWindow="940" windowWidth="14880" windowHeight="16860" xr2:uid="{4C9175B9-4CE5-7C4F-8DB3-C3A40C9D6368}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4C9175B9-4CE5-7C4F-8DB3-C3A40C9D6368}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -68,9 +66,6 @@
     <t>Prepared By</t>
   </si>
   <si>
-    <t>G Nasir Hussain</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -182,19 +177,22 @@
     <t>7. Recommendations</t>
   </si>
   <si>
-    <t>✅ Requirements Coverage: 15 out of 15 covered.</t>
-  </si>
-  <si>
     <t>Sometings after logging in it takes to " OTP page for confirmation "</t>
   </si>
   <si>
     <t>ebay</t>
   </si>
   <si>
-    <t>16/8/2025</t>
-  </si>
-  <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>✅ Requirements Coverage: 17 out of 17 covered.</t>
+  </si>
+  <si>
+    <t>18/8/2025</t>
+  </si>
+  <si>
+    <t>Yugandhar Muppana</t>
   </si>
 </sst>
 </file>
@@ -658,18 +656,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3218D22-05E2-6E4A-BC1A-54BD5285E30A}">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="19.69921875" customWidth="1"/>
+    <col min="2" max="2" width="19.19921875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="56" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -680,15 +678,15 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -696,7 +694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -704,7 +702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -712,157 +710,157 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="10" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="B13" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="B14" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B14" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="B15" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="4" t="s">
+    </row>
+    <row r="18" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="B19" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="B20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A23" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="B20" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.4">
-      <c r="A23" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="10" t="s">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="B26" s="4">
         <v>15</v>
       </c>
       <c r="C26" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="4">
+        <v>2</v>
+      </c>
+      <c r="C27" s="11">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="B27" s="4">
-        <v>0</v>
-      </c>
-      <c r="C27" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="B28" s="4">
         <v>0</v>
@@ -871,9 +869,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="4">
         <v>0</v>
@@ -882,196 +880,196 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A32" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B35" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="B36" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B39" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="B40" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="34" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A44" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="12"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="12"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="12"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="12" t="s">
+    <row r="54" spans="1:5" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A54" s="6" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="34" x14ac:dyDescent="0.4">
-      <c r="A54" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="12"/>
     </row>
-    <row r="56" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
     </row>
-    <row r="60" spans="1:5" ht="34" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:5" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A60" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="8"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
     </row>
-    <row r="62" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="C62" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C62" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="67" spans="1:5" ht="140" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:5" ht="100.8" x14ac:dyDescent="0.65">
       <c r="A67" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="12"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="15"/>
     </row>
   </sheetData>
